--- a/hardware/jlink_to_tag/rev_d/jlink_to_tag_bom.xlsx
+++ b/hardware/jlink_to_tag/rev_d/jlink_to_tag_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -142,6 +142,9 @@
     <t xml:space="preserve">R10, R11, R12, R13, R14, R15, R16</t>
   </si>
   <si>
+    <t xml:space="preserve">RHM1.00KHCT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">PTS645SM43SMTR92</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rotary Switch 8 Position SP7T 500mA (DC) 24VDC Through Hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKN10691-ND</t>
   </si>
   <si>
     <t xml:space="preserve">SN74AHC4066-RGY</t>
@@ -307,12 +313,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,7 +350,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -377,213 +387,219 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>470</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,19 +607,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,22 +627,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,22 +650,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,22 +673,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
